--- a/data/data_raw/eurostat/AT_bovine_population_apro_mt_lscatl.xlsx
+++ b/data/data_raw/eurostat/AT_bovine_population_apro_mt_lscatl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AN24"/>
+  <dimension ref="A1:AO24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -629,6 +629,11 @@
           <t>2023</t>
         </is>
       </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -755,6 +760,7 @@
       <c r="AN2" t="n">
         <v>1835.47</v>
       </c>
+      <c r="AO2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -881,6 +887,7 @@
       <c r="AN3" t="n">
         <v>577.24</v>
       </c>
+      <c r="AO3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -1007,6 +1014,7 @@
       <c r="AN4" t="n">
         <v>41.58</v>
       </c>
+      <c r="AO4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -1133,6 +1141,7 @@
       <c r="AN5" t="n">
         <v>535.66</v>
       </c>
+      <c r="AO5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -1259,6 +1268,7 @@
       <c r="AN6" t="n">
         <v>426.56</v>
       </c>
+      <c r="AO6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -1385,6 +1395,7 @@
       <c r="AN7" t="n">
         <v>831.6799999999999</v>
       </c>
+      <c r="AO7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -1511,6 +1522,7 @@
       <c r="AN8" t="n">
         <v>248.85</v>
       </c>
+      <c r="AO8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -1641,6 +1653,7 @@
       <c r="AN9" t="n">
         <v>163.24</v>
       </c>
+      <c r="AO9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1771,6 +1784,7 @@
       <c r="AN10" t="n">
         <v>23.72</v>
       </c>
+      <c r="AO10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1897,6 +1911,7 @@
       <c r="AN11" t="n">
         <v>807.96</v>
       </c>
+      <c r="AO11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -2023,6 +2038,7 @@
       <c r="AN12" t="n">
         <v>286.8</v>
       </c>
+      <c r="AO12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -2149,6 +2165,7 @@
       <c r="AN13" t="n">
         <v>263.31</v>
       </c>
+      <c r="AO13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -2275,6 +2292,7 @@
       <c r="AN14" t="n">
         <v>64.08</v>
       </c>
+      <c r="AO14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -2401,6 +2419,7 @@
       <c r="AN15" t="n">
         <v>199.24</v>
       </c>
+      <c r="AO15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -2527,6 +2546,7 @@
       <c r="AN16" t="n">
         <v>108.18</v>
       </c>
+      <c r="AO16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -2653,6 +2673,7 @@
       <c r="AN17" t="n">
         <v>15.86</v>
       </c>
+      <c r="AO17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -2779,6 +2800,7 @@
       <c r="AN18" t="n">
         <v>92.33</v>
       </c>
+      <c r="AO18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -2909,6 +2931,7 @@
       <c r="AN19" t="n">
         <v>699.78</v>
       </c>
+      <c r="AO19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -3039,6 +3062,7 @@
       <c r="AN20" t="n">
         <v>543.03</v>
       </c>
+      <c r="AO20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -3169,6 +3193,7 @@
       <c r="AN21" t="n">
         <v>156.75</v>
       </c>
+      <c r="AO21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -3295,6 +3320,7 @@
       <c r="AN22" t="n">
         <v>0</v>
       </c>
+      <c r="AO22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -3421,6 +3447,7 @@
       <c r="AN23" t="n">
         <v>0</v>
       </c>
+      <c r="AO23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -3547,6 +3574,7 @@
       <c r="AN24" t="n">
         <v>0</v>
       </c>
+      <c r="AO24" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
